--- a/src/output/results10.xlsx
+++ b/src/output/results10.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5238.0</v>
+        <v>2988.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1243.0</v>
+        <v>1179.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5236.0</v>
+        <v>3625.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206.0</v>
+        <v>1124.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4626.0</v>
+        <v>3285.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1482.0</v>
+        <v>1181.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4040.0</v>
+        <v>3170.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1934.0</v>
+        <v>1239.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3712.0</v>
+        <v>2844.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2029.0</v>
+        <v>1294.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3468.0</v>
+        <v>3675.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1919.0</v>
+        <v>1254.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3288.0</v>
+        <v>3239.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1713.0</v>
+        <v>1214.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3052.0</v>
+        <v>2452.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1519.0</v>
+        <v>1151.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2972.0</v>
+        <v>2451.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1555.0</v>
+        <v>1305.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2873.0</v>
+        <v>2389.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1423.0</v>
+        <v>1214.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2712.0</v>
+        <v>2411.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1376.0</v>
+        <v>1059.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2684.0</v>
+        <v>2428.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1210.0</v>
+        <v>1076.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2667.0</v>
+        <v>2796.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1338.0</v>
+        <v>1043.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2720.0</v>
+        <v>2729.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1171.0</v>
+        <v>1011.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2621.0</v>
+        <v>2341.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1192.0</v>
+        <v>1072.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2591.0</v>
+        <v>2277.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1156.0</v>
+        <v>1041.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2542.0</v>
+        <v>2349.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1162.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2521.0</v>
+        <v>2286.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1163.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2626.0</v>
+        <v>2273.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1152.0</v>
+        <v>952.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2606.0</v>
+        <v>2725.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1143.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2577.0</v>
+        <v>2578.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1138.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2572.0</v>
+        <v>2333.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1099.0</v>
+        <v>895.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2545.0</v>
+        <v>2357.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1096.0</v>
+        <v>1007.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2541.0</v>
+        <v>2260.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1100.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2422.0</v>
+        <v>2276.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1108.0</v>
+        <v>955.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2422.0</v>
+        <v>2300.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1105.0</v>
+        <v>970.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2470.0</v>
+        <v>2647.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1006.0</v>
+        <v>962.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2547.0</v>
+        <v>2725.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1044.0</v>
+        <v>929.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2576.0</v>
+        <v>2264.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1023.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2392.0</v>
+        <v>2292.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1040.0</v>
+        <v>1017.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2437.0</v>
+        <v>2370.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1063.0</v>
+        <v>1026.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3224.0</v>
+        <v>3133.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1038.0</v>
+        <v>943.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3138.0</v>
+        <v>3232.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1040.0</v>
+        <v>927.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2997.0</v>
+        <v>3367.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1181.0</v>
+        <v>1079.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3068.0</v>
+        <v>3414.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1298.0</v>
+        <v>1208.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3994.0</v>
+        <v>4343.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1302.0</v>
+        <v>1273.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4067.0</v>
+        <v>4254.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1357.0</v>
+        <v>1332.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4462.0</v>
+        <v>4895.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1517.0</v>
+        <v>1522.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5093.0</v>
+        <v>5541.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1646.0</v>
+        <v>1693.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5620.0</v>
+        <v>6001.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1816.0</v>
+        <v>1927.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5058.0</v>
+        <v>6417.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1964.0</v>
+        <v>2204.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4870.0</v>
+        <v>6302.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2197.0</v>
+        <v>2407.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6742.0</v>
+        <v>7582.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2415.0</v>
+        <v>2665.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6509.0</v>
+        <v>7109.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2338.0</v>
+        <v>2681.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6899.0</v>
+        <v>7748.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2420.0</v>
+        <v>2856.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7690.0</v>
+        <v>8430.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2852.0</v>
+        <v>2966.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8245.0</v>
+        <v>9073.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2812.0</v>
+        <v>3231.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7369.0</v>
+        <v>9641.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3161.0</v>
+        <v>3442.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6820.0</v>
+        <v>9955.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3365.0</v>
+        <v>3769.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9887.0</v>
+        <v>10846.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3576.0</v>
+        <v>4063.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8842.0</v>
+        <v>10117.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3308.0</v>
+        <v>4061.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9548.0</v>
+        <v>11168.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3690.0</v>
+        <v>4416.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10531.0</v>
+        <v>12011.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3942.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11342.0</v>
+        <v>12821.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4011.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9801.0</v>
+        <v>13781.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4253.0</v>
+        <v>5125.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9064.0</v>
+        <v>13979.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4772.0</v>
+        <v>5479.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12706.0</v>
+        <v>14577.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4926.0</v>
+        <v>5679.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11501.0</v>
+        <v>13512.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4599.0</v>
+        <v>5817.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11741.0</v>
+        <v>14496.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4840.0</v>
+        <v>6020.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13213.0</v>
+        <v>15281.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5205.0</v>
+        <v>6234.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13684.0</v>
+        <v>16390.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5242.0</v>
+        <v>6379.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11850.0</v>
+        <v>17417.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5336.0</v>
+        <v>6761.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11087.0</v>
+        <v>17673.0</v>
       </c>
       <c r="B63" t="n">
-        <v>5982.0</v>
+        <v>6926.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15220.0</v>
+        <v>17875.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6052.0</v>
+        <v>7210.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13464.0</v>
+        <v>16509.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5673.0</v>
+        <v>7452.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14148.0</v>
+        <v>17141.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5913.0</v>
+        <v>7603.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15094.0</v>
+        <v>18104.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6361.0</v>
+        <v>7658.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15657.0</v>
+        <v>18677.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6207.0</v>
+        <v>7618.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13487.0</v>
+        <v>20081.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6424.0</v>
+        <v>7750.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12507.0</v>
+        <v>20395.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6873.0</v>
+        <v>8183.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17243.0</v>
+        <v>20074.0</v>
       </c>
       <c r="B71" t="n">
-        <v>6982.0</v>
+        <v>8237.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15103.0</v>
+        <v>18182.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6370.0</v>
+        <v>8423.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15438.0</v>
+        <v>19077.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6578.0</v>
+        <v>8870.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16338.0</v>
+        <v>20017.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7237.0</v>
+        <v>8504.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17111.0</v>
+        <v>19920.0</v>
       </c>
       <c r="B75" t="n">
-        <v>6874.0</v>
+        <v>8486.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14463.0</v>
+        <v>21611.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6929.0</v>
+        <v>8647.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13341.0</v>
+        <v>21884.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7505.0</v>
+        <v>8957.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18236.0</v>
+        <v>20737.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7571.0</v>
+        <v>8991.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>15967.0</v>
+        <v>18599.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7209.0</v>
+        <v>9088.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16249.0</v>
+        <v>19232.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7160.0</v>
+        <v>9161.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17122.0</v>
+        <v>19938.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7550.0</v>
+        <v>8982.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>17543.0</v>
+        <v>20570.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7547.0</v>
+        <v>8821.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>14827.0</v>
+        <v>21718.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7442.0</v>
+        <v>8688.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13739.0</v>
+        <v>21796.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7810.0</v>
+        <v>9009.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18357.0</v>
+        <v>20538.0</v>
       </c>
       <c r="B85" t="n">
-        <v>7885.0</v>
+        <v>9046.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>15979.0</v>
+        <v>18244.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7257.0</v>
+        <v>8887.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16060.0</v>
+        <v>18834.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7089.0</v>
+        <v>9079.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>16978.0</v>
+        <v>19198.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7642.0</v>
+        <v>8819.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17109.0</v>
+        <v>19819.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7318.0</v>
+        <v>8560.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>14624.0</v>
+        <v>20662.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7383.0</v>
+        <v>8568.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13201.0</v>
+        <v>20841.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7658.0</v>
+        <v>8631.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>17787.0</v>
+        <v>19772.0</v>
       </c>
       <c r="B92" t="n">
-        <v>7647.0</v>
+        <v>8643.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>15703.0</v>
+        <v>17571.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7157.0</v>
+        <v>8593.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>15839.0</v>
+        <v>17935.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7116.0</v>
+        <v>8737.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16693.0</v>
+        <v>18571.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7501.0</v>
+        <v>8460.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17116.0</v>
+        <v>18659.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7128.0</v>
+        <v>8123.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12207.0</v>
+        <v>19845.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7186.0</v>
+        <v>8095.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13051.0</v>
+        <v>18944.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7597.0</v>
+        <v>8178.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13905.0</v>
+        <v>13935.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7500.0</v>
+        <v>8299.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12010.0</v>
+        <v>12201.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6872.0</v>
+        <v>7994.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11376.0</v>
+        <v>11955.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6415.0</v>
+        <v>7327.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11206.0</v>
+        <v>11882.0</v>
       </c>
       <c r="B102" t="n">
-        <v>6138.0</v>
+        <v>6507.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10935.0</v>
+        <v>11353.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5658.0</v>
+        <v>5702.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9258.0</v>
+        <v>13697.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5098.0</v>
+        <v>5237.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8430.0</v>
+        <v>12152.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5241.0</v>
+        <v>5183.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11829.0</v>
+        <v>12176.0</v>
       </c>
       <c r="B106" t="n">
-        <v>5101.0</v>
+        <v>5095.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10122.0</v>
+        <v>10889.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4601.0</v>
+        <v>5127.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10752.0</v>
+        <v>11376.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4704.0</v>
+        <v>5124.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11201.0</v>
+        <v>11851.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4754.0</v>
+        <v>5077.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>12131.0</v>
+        <v>12395.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4672.0</v>
+        <v>4879.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9941.0</v>
+        <v>13219.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4797.0</v>
+        <v>5020.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9548.0</v>
+        <v>12421.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5436.0</v>
+        <v>5362.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13500.0</v>
+        <v>13470.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5483.0</v>
+        <v>5339.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12455.0</v>
+        <v>12388.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5172.0</v>
+        <v>5495.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12866.0</v>
+        <v>12968.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5297.0</v>
+        <v>5507.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13629.0</v>
+        <v>13452.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5546.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14250.0</v>
+        <v>13795.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5611.0</v>
+        <v>5523.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12723.0</v>
+        <v>14177.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5680.0</v>
+        <v>5639.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11384.0</v>
+        <v>14245.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6358.0</v>
+        <v>6001.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16587.0</v>
+        <v>14982.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6497.0</v>
+        <v>6024.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>14738.0</v>
+        <v>13641.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6471.0</v>
+        <v>5979.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>15891.0</v>
+        <v>14074.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6411.0</v>
+        <v>6124.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16637.0</v>
+        <v>14644.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6652.0</v>
+        <v>6245.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>18226.0</v>
+        <v>15116.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6781.0</v>
+        <v>6106.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15799.0</v>
+        <v>15711.0</v>
       </c>
       <c r="B125" t="n">
-        <v>7476.0</v>
+        <v>6178.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14531.0</v>
+        <v>15857.0</v>
       </c>
       <c r="B126" t="n">
-        <v>8136.0</v>
+        <v>6375.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>20206.0</v>
+        <v>16693.0</v>
       </c>
       <c r="B127" t="n">
-        <v>8394.0</v>
+        <v>6552.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18428.0</v>
+        <v>15545.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7982.0</v>
+        <v>6831.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>19573.0</v>
+        <v>15873.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7987.0</v>
+        <v>6930.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20611.0</v>
+        <v>16581.0</v>
       </c>
       <c r="B130" t="n">
-        <v>8335.0</v>
+        <v>6892.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>22175.0</v>
+        <v>17155.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8649.0</v>
+        <v>7021.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>19560.0</v>
+        <v>17704.0</v>
       </c>
       <c r="B132" t="n">
-        <v>9274.0</v>
+        <v>6982.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17732.0</v>
+        <v>17811.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9789.0</v>
+        <v>7510.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>24437.0</v>
+        <v>18891.0</v>
       </c>
       <c r="B134" t="n">
-        <v>10052.0</v>
+        <v>7567.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22064.0</v>
+        <v>17449.0</v>
       </c>
       <c r="B135" t="n">
-        <v>9789.0</v>
+        <v>7655.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23238.0</v>
+        <v>17785.0</v>
       </c>
       <c r="B136" t="n">
-        <v>10116.0</v>
+        <v>7659.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>24359.0</v>
+        <v>18546.0</v>
       </c>
       <c r="B137" t="n">
-        <v>10035.0</v>
+        <v>7862.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>26480.0</v>
+        <v>18979.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10336.0</v>
+        <v>7901.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23005.0</v>
+        <v>20270.0</v>
       </c>
       <c r="B139" t="n">
-        <v>11151.0</v>
+        <v>8149.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>20745.0</v>
+        <v>20299.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11941.0</v>
+        <v>8401.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>27778.0</v>
+        <v>20982.0</v>
       </c>
       <c r="B141" t="n">
-        <v>12020.0</v>
+        <v>8678.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24891.0</v>
+        <v>18940.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11506.0</v>
+        <v>8612.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>26462.0</v>
+        <v>19418.0</v>
       </c>
       <c r="B143" t="n">
-        <v>11599.0</v>
+        <v>8634.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27435.0</v>
+        <v>20099.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11410.0</v>
+        <v>8899.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>29237.0</v>
+        <v>20786.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11887.0</v>
+        <v>8804.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>25483.0</v>
+        <v>21908.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12677.0</v>
+        <v>9109.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22906.0</v>
+        <v>22145.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13388.0</v>
+        <v>9254.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30330.0</v>
+        <v>21934.0</v>
       </c>
       <c r="B148" t="n">
-        <v>13180.0</v>
+        <v>9369.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>26730.0</v>
+        <v>20427.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12710.0</v>
+        <v>9397.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22193.0</v>
+        <v>15853.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12453.0</v>
+        <v>9763.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22734.0</v>
+        <v>15791.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11970.0</v>
+        <v>9340.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>21967.0</v>
+        <v>15585.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11522.0</v>
+        <v>9106.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17515.0</v>
+        <v>20609.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11465.0</v>
+        <v>8522.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>17008.0</v>
+        <v>17690.0</v>
       </c>
       <c r="B154" t="n">
-        <v>11123.0</v>
+        <v>8190.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13642.0</v>
+        <v>15238.0</v>
       </c>
       <c r="B155" t="n">
-        <v>9960.0</v>
+        <v>7817.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10772.0</v>
+        <v>12781.0</v>
       </c>
       <c r="B156" t="n">
-        <v>8838.0</v>
+        <v>7603.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14521.0</v>
+        <v>14651.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7538.0</v>
+        <v>7043.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12006.0</v>
+        <v>12924.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6492.0</v>
+        <v>6628.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10355.0</v>
+        <v>10474.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6095.0</v>
+        <v>6357.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8835.0</v>
+        <v>11349.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5701.0</v>
+        <v>6123.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8931.0</v>
+        <v>11149.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5701.0</v>
+        <v>6016.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11259.0</v>
+        <v>11462.0</v>
       </c>
       <c r="B162" t="n">
-        <v>5713.0</v>
+        <v>5861.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12222.0</v>
+        <v>13439.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5616.0</v>
+        <v>5531.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11746.0</v>
+        <v>13246.0</v>
       </c>
       <c r="B164" t="n">
-        <v>4861.0</v>
+        <v>5367.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12084.0</v>
+        <v>13994.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4482.0</v>
+        <v>5427.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13326.0</v>
+        <v>14638.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4774.0</v>
+        <v>5579.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11474.0</v>
+        <v>16841.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5294.0</v>
+        <v>5967.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11432.0</v>
+        <v>15909.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6002.0</v>
+        <v>6492.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16210.0</v>
+        <v>18035.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6048.0</v>
+        <v>7201.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>15007.0</v>
+        <v>16881.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6141.0</v>
+        <v>7386.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15647.0</v>
+        <v>17955.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6111.0</v>
+        <v>7628.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16392.0</v>
+        <v>18611.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6118.0</v>
+        <v>7811.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18025.0</v>
+        <v>19485.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6658.0</v>
+        <v>8244.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16244.0</v>
+        <v>22882.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7414.0</v>
+        <v>8771.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>14837.0</v>
+        <v>22764.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8089.0</v>
+        <v>9177.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>20816.0</v>
+        <v>22627.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8156.0</v>
+        <v>9825.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>18933.0</v>
+        <v>21029.0</v>
       </c>
       <c r="B177" t="n">
-        <v>7951.0</v>
+        <v>10177.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>19885.0</v>
+        <v>22659.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8000.0</v>
+        <v>10085.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21365.0</v>
+        <v>23950.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8133.0</v>
+        <v>10472.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22820.0</v>
+        <v>25057.0</v>
       </c>
       <c r="B180" t="n">
-        <v>8728.0</v>
+        <v>11067.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>20862.0</v>
+        <v>28428.0</v>
       </c>
       <c r="B181" t="n">
-        <v>9674.0</v>
+        <v>11550.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18573.0</v>
+        <v>29211.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10301.0</v>
+        <v>11878.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>26275.0</v>
+        <v>27572.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10329.0</v>
+        <v>12545.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>23517.0</v>
+        <v>25867.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10372.0</v>
+        <v>13070.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>24681.0</v>
+        <v>27741.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10334.0</v>
+        <v>12776.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>25976.0</v>
+        <v>28476.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10209.0</v>
+        <v>12892.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>28182.0</v>
+        <v>29512.0</v>
       </c>
       <c r="B187" t="n">
-        <v>10792.0</v>
+        <v>13508.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>24911.0</v>
+        <v>33729.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12062.0</v>
+        <v>14264.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>22683.0</v>
+        <v>34819.0</v>
       </c>
       <c r="B189" t="n">
-        <v>12879.0</v>
+        <v>14327.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>30688.0</v>
+        <v>31104.0</v>
       </c>
       <c r="B190" t="n">
-        <v>12824.0</v>
+        <v>14854.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27554.0</v>
+        <v>28885.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12415.0</v>
+        <v>15477.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28601.0</v>
+        <v>30018.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12341.0</v>
+        <v>14886.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>29837.0</v>
+        <v>30973.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12168.0</v>
+        <v>14806.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>31464.0</v>
+        <v>31419.0</v>
       </c>
       <c r="B194" t="n">
-        <v>12743.0</v>
+        <v>15072.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>27803.0</v>
+        <v>35960.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14133.0</v>
+        <v>15512.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>24826.0</v>
+        <v>37089.0</v>
       </c>
       <c r="B196" t="n">
-        <v>14813.0</v>
+        <v>15704.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33129.0</v>
+        <v>31512.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14268.0</v>
+        <v>15900.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>29082.0</v>
+        <v>29113.0</v>
       </c>
       <c r="B198" t="n">
-        <v>13747.0</v>
+        <v>16248.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>29694.0</v>
+        <v>29867.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13490.0</v>
+        <v>15426.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>30313.0</v>
+        <v>30875.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13104.0</v>
+        <v>14965.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>32174.0</v>
+        <v>30594.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13550.0</v>
+        <v>15416.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>27896.0</v>
+        <v>35207.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14816.0</v>
+        <v>15540.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>25174.0</v>
+        <v>36071.0</v>
       </c>
       <c r="B203" t="n">
-        <v>14941.0</v>
+        <v>15425.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32382.0</v>
+        <v>29911.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14469.0</v>
+        <v>15651.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28280.0</v>
+        <v>27655.0</v>
       </c>
       <c r="B205" t="n">
-        <v>13838.0</v>
+        <v>15591.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28564.0</v>
+        <v>28451.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13402.0</v>
+        <v>14888.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20582.0</v>
+        <v>31489.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12733.0</v>
+        <v>14141.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29901.0</v>
+        <v>29092.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12644.0</v>
+        <v>13914.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>21614.0</v>
+        <v>27312.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13168.0</v>
+        <v>14267.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19606.0</v>
+        <v>26997.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13155.0</v>
+        <v>14147.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25590.0</v>
+        <v>25822.0</v>
       </c>
       <c r="B211" t="n">
-        <v>11783.0</v>
+        <v>13135.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22181.0</v>
+        <v>23046.0</v>
       </c>
       <c r="B212" t="n">
-        <v>10970.0</v>
+        <v>12876.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>22885.0</v>
+        <v>24361.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10727.0</v>
+        <v>12477.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23427.0</v>
+        <v>24183.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10403.0</v>
+        <v>12077.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24220.0</v>
+        <v>24702.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10552.0</v>
+        <v>12114.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20684.0</v>
+        <v>27836.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11310.0</v>
+        <v>12212.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>18673.0</v>
+        <v>28062.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11279.0</v>
+        <v>12212.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25034.0</v>
+        <v>23908.0</v>
       </c>
       <c r="B218" t="n">
-        <v>11098.0</v>
+        <v>12425.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22217.0</v>
+        <v>21781.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10477.0</v>
+        <v>12384.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15453.0</v>
+        <v>23848.0</v>
       </c>
       <c r="B220" t="n">
-        <v>9939.0</v>
+        <v>11469.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21826.0</v>
+        <v>22224.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9439.0</v>
+        <v>10840.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20094.0</v>
+        <v>20605.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9172.0</v>
+        <v>10959.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>16781.0</v>
+        <v>22217.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9681.0</v>
+        <v>10959.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>15046.0</v>
+        <v>21491.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9555.0</v>
+        <v>10378.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20257.0</v>
+        <v>21207.0</v>
       </c>
       <c r="B225" t="n">
-        <v>8974.0</v>
+        <v>10123.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18455.0</v>
+        <v>18916.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8838.0</v>
+        <v>10143.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18721.0</v>
+        <v>19548.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8612.0</v>
+        <v>9728.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18868.0</v>
+        <v>19924.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8373.0</v>
+        <v>9479.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19745.0</v>
+        <v>19909.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8447.0</v>
+        <v>9576.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>17096.0</v>
+        <v>22468.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8770.0</v>
+        <v>9800.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15421.0</v>
+        <v>22831.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9301.0</v>
+        <v>9691.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20996.0</v>
+        <v>20184.0</v>
       </c>
       <c r="B232" t="n">
-        <v>8896.0</v>
+        <v>10014.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18472.0</v>
+        <v>18511.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8752.0</v>
+        <v>10030.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15181.0</v>
+        <v>14371.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8247.0</v>
+        <v>9398.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>15037.0</v>
+        <v>13922.0</v>
       </c>
       <c r="B235" t="n">
-        <v>8056.0</v>
+        <v>8775.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14874.0</v>
+        <v>13387.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7973.0</v>
+        <v>8288.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11795.0</v>
+        <v>18164.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7938.0</v>
+        <v>7918.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>12031.0</v>
+        <v>15799.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7999.0</v>
+        <v>7548.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>13128.0</v>
+        <v>11160.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7218.0</v>
+        <v>7092.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>11022.0</v>
+        <v>9587.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6462.0</v>
+        <v>6421.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10368.0</v>
+        <v>9295.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5896.0</v>
+        <v>5884.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>10073.0</v>
+        <v>9047.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5388.0</v>
+        <v>5523.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9989.0</v>
+        <v>8766.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5412.0</v>
+        <v>5130.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8384.0</v>
+        <v>11343.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5361.0</v>
+        <v>4867.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>8333.0</v>
+        <v>9992.0</v>
       </c>
       <c r="B245" t="n">
-        <v>5338.0</v>
+        <v>4598.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10974.0</v>
+        <v>9583.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4846.0</v>
+        <v>4367.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9847.0</v>
+        <v>8765.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4457.0</v>
+        <v>4347.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9763.0</v>
+        <v>9007.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4206.0</v>
+        <v>4178.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>10051.0</v>
+        <v>9278.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4265.0</v>
+        <v>4113.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>10608.0</v>
+        <v>9644.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4347.0</v>
+        <v>4296.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8847.0</v>
+        <v>11185.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4631.0</v>
+        <v>4413.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8719.0</v>
+        <v>10339.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4912.0</v>
+        <v>4465.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11879.0</v>
+        <v>10653.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4860.0</v>
+        <v>4434.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10893.0</v>
+        <v>9928.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4729.0</v>
+        <v>4647.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10809.0</v>
+        <v>9883.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4700.0</v>
+        <v>4604.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>11110.0</v>
+        <v>10384.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4529.0</v>
+        <v>4507.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11220.0</v>
+        <v>10599.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4587.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9733.0</v>
+        <v>11689.0</v>
       </c>
       <c r="B258" t="n">
-        <v>5020.0</v>
+        <v>4829.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>9005.0</v>
+        <v>11580.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5357.0</v>
+        <v>4781.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12502.0</v>
+        <v>11620.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5237.0</v>
+        <v>4885.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11589.0</v>
+        <v>10715.0</v>
       </c>
       <c r="B261" t="n">
-        <v>5036.0</v>
+        <v>4834.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11472.0</v>
+        <v>10950.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4996.0</v>
+        <v>4888.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11673.0</v>
+        <v>11087.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4798.0</v>
+        <v>4936.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11874.0</v>
+        <v>11446.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4925.0</v>
+        <v>5015.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10414.0</v>
+        <v>12215.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5211.0</v>
+        <v>5149.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9185.0</v>
+        <v>12295.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5494.0</v>
+        <v>5186.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13190.0</v>
+        <v>12238.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5605.0</v>
+        <v>5259.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>12016.0</v>
+        <v>11220.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5478.0</v>
+        <v>5357.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11806.0</v>
+        <v>11504.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5192.0</v>
+        <v>5181.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>12119.0</v>
+        <v>11560.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5096.0</v>
+        <v>5231.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12472.0</v>
+        <v>11683.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5175.0</v>
+        <v>5192.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10914.0</v>
+        <v>12698.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5331.0</v>
+        <v>5246.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9791.0</v>
+        <v>12591.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5712.0</v>
+        <v>5323.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9262.0</v>
+        <v>11696.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5831.0</v>
+        <v>5370.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12531.0</v>
+        <v>11875.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5468.0</v>
+        <v>5493.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10682.0</v>
+        <v>10558.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5144.0</v>
+        <v>5213.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10799.0</v>
+        <v>11049.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4770.0</v>
+        <v>5167.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10897.0</v>
+        <v>11381.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4832.0</v>
+        <v>5135.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8925.0</v>
+        <v>11358.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4842.0</v>
+        <v>5070.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8251.0</v>
+        <v>11010.0</v>
       </c>
       <c r="B280" t="n">
-        <v>5019.0</v>
+        <v>5176.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>11819.0</v>
+        <v>12356.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5125.0</v>
+        <v>5179.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7506.0</v>
+        <v>10421.0</v>
       </c>
       <c r="B282" t="n">
-        <v>4944.0</v>
+        <v>5144.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10826.0</v>
+        <v>11543.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4694.0</v>
+        <v>5108.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>10284.0</v>
+        <v>11004.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4611.0</v>
+        <v>4901.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10088.0</v>
+        <v>11032.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4262.0</v>
+        <v>5003.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8449.0</v>
+        <v>11327.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4406.0</v>
+        <v>4951.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7721.0</v>
+        <v>10966.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4575.0</v>
+        <v>4987.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>10977.0</v>
+        <v>11962.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4514.0</v>
+        <v>5063.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9929.0</v>
+        <v>10790.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4389.0</v>
+        <v>5027.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>9976.0</v>
+        <v>11178.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4459.0</v>
+        <v>4984.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10505.0</v>
+        <v>11411.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4344.0</v>
+        <v>5062.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10802.0</v>
+        <v>11817.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4514.0</v>
+        <v>4975.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>9088.0</v>
+        <v>12378.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4558.0</v>
+        <v>5115.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8306.0</v>
+        <v>12424.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4923.0</v>
+        <v>5266.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11616.0</v>
+        <v>12364.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4884.0</v>
+        <v>5274.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10775.0</v>
+        <v>11518.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4731.0</v>
+        <v>5382.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10471.0</v>
+        <v>11725.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4591.0</v>
+        <v>5387.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>11071.0</v>
+        <v>11873.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4716.0</v>
+        <v>5379.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11223.0</v>
+        <v>12026.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4700.0</v>
+        <v>5265.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9554.0</v>
+        <v>12896.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4863.0</v>
+        <v>5318.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8557.0</v>
+        <v>13038.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5142.0</v>
+        <v>5531.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12072.0</v>
+        <v>12654.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5293.0</v>
+        <v>5567.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10870.0</v>
+        <v>11784.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5004.0</v>
+        <v>5606.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10922.0</v>
+        <v>11879.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4664.0</v>
+        <v>5717.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9109.0</v>
+        <v>9310.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4855.0</v>
+        <v>5488.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9387.0</v>
+        <v>9275.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4783.0</v>
+        <v>5325.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7603.0</v>
+        <v>12301.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4801.0</v>
+        <v>5072.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7700.0</v>
+        <v>11239.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4832.0</v>
+        <v>4919.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8692.0</v>
+        <v>8399.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4688.0</v>
+        <v>4761.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7610.0</v>
+        <v>7594.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4128.0</v>
+        <v>4704.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7261.0</v>
+        <v>7514.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3775.0</v>
+        <v>4365.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7173.0</v>
+        <v>7273.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3528.0</v>
+        <v>3889.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7056.0</v>
+        <v>7134.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3377.0</v>
+        <v>3574.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5507.0</v>
+        <v>8503.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3325.0</v>
+        <v>3541.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5856.0</v>
+        <v>7734.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3460.0</v>
+        <v>3328.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5331.0</v>
+        <v>6965.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3461.0</v>
+        <v>3328.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6147.0</v>
+        <v>6175.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3040.0</v>
+        <v>3308.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5597.0</v>
+        <v>5547.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2877.0</v>
+        <v>3095.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5461.0</v>
+        <v>5569.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2740.0</v>
+        <v>2990.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5579.0</v>
+        <v>5502.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2500.0</v>
+        <v>2682.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4362.0</v>
+        <v>5912.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2474.0</v>
+        <v>2620.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4480.0</v>
+        <v>5765.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2517.0</v>
+        <v>2617.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5791.0</v>
+        <v>5364.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2553.0</v>
+        <v>2548.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5197.0</v>
+        <v>4946.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2400.0</v>
+        <v>2433.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5414.0</v>
+        <v>4956.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2463.0</v>
+        <v>2422.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5413.0</v>
+        <v>4878.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2408.0</v>
+        <v>2267.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5577.0</v>
+        <v>4898.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2284.0</v>
+        <v>2196.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4402.0</v>
+        <v>5591.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2278.0</v>
+        <v>2215.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4841.0</v>
+        <v>5478.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2453.0</v>
+        <v>2194.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5728.0</v>
+        <v>4913.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2459.0</v>
+        <v>2189.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5046.0</v>
+        <v>4522.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2382.0</v>
+        <v>2276.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5167.0</v>
+        <v>4506.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2362.0</v>
+        <v>2182.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5456.0</v>
+        <v>4668.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2341.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5450.0</v>
+        <v>4583.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2247.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4605.0</v>
+        <v>5324.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2212.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4631.0</v>
+        <v>5014.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2415.0</v>
+        <v>2068.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4451.0</v>
+        <v>3567.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2452.0</v>
+        <v>2050.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>3979.0</v>
+        <v>3342.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2265.0</v>
+        <v>1964.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3789.0</v>
+        <v>3268.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2228.0</v>
+        <v>2040.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3435.0</v>
+        <v>3140.0</v>
       </c>
       <c r="B340" t="n">
-        <v>2013.0</v>
+        <v>1627.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3360.0</v>
+        <v>2919.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1826.0</v>
+        <v>1452.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3174.0</v>
+        <v>3556.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1606.0</v>
+        <v>1470.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2977.0</v>
+        <v>3253.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1535.0</v>
+        <v>1290.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2889.0</v>
+        <v>2552.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1519.0</v>
+        <v>1296.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2772.0</v>
+        <v>2460.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1431.0</v>
+        <v>1249.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2650.0</v>
+        <v>2470.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1330.0</v>
+        <v>1239.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2721.0</v>
+        <v>2352.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1240.0</v>
+        <v>1121.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2637.0</v>
+        <v>2360.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1321.0</v>
+        <v>1144.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2570.0</v>
+        <v>2712.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1168.0</v>
+        <v>1034.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2610.0</v>
+        <v>2532.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1239.0</v>
+        <v>985.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2535.0</v>
+        <v>2219.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1161.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2555.0</v>
+        <v>2109.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1108.0</v>
+        <v>992.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2538.0</v>
+        <v>2198.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1089.0</v>
+        <v>984.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2587.0</v>
+        <v>2191.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1097.0</v>
+        <v>916.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2555.0</v>
+        <v>2209.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1084.0</v>
+        <v>858.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2431.0</v>
+        <v>2506.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1116.0</v>
+        <v>915.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2462.0</v>
+        <v>2351.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1052.0</v>
+        <v>885.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2440.0</v>
+        <v>2049.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1102.0</v>
+        <v>902.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2600.0</v>
+        <v>2071.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1093.0</v>
+        <v>881.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2526.0</v>
+        <v>2035.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1022.0</v>
+        <v>912.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2481.0</v>
+        <v>2011.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1053.0</v>
+        <v>821.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2532.0</v>
+        <v>1966.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1056.0</v>
+        <v>775.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2460.0</v>
+        <v>2206.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1010.0</v>
+        <v>803.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2557.0</v>
+        <v>2087.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1016.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2518.0</v>
+        <v>1791.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1087.0</v>
+        <v>888.0</v>
       </c>
     </row>
   </sheetData>
